--- a/GrowUP_rozwoj.xlsx
+++ b/GrowUP_rozwoj.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="38">
   <si>
     <t>Nauka</t>
   </si>
@@ -134,6 +134,12 @@
   <si>
     <t>Decyzja</t>
   </si>
+  <si>
+    <t>Wynik:</t>
+  </si>
+  <si>
+    <t>Kolejność:</t>
+  </si>
 </sst>
 </file>
 
@@ -165,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -543,42 +555,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,20 +594,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -650,386 +666,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1475,11 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J85"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N95" sqref="N95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1523,7 +1159,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="70">
+      <c r="A2" s="91">
         <v>1</v>
       </c>
       <c r="B2" s="12">
@@ -1560,8 +1196,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="70">
+      <c r="A3" s="92"/>
+      <c r="B3" s="91">
         <v>1</v>
       </c>
       <c r="C3" s="5">
@@ -1590,8 +1226,8 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1618,8 +1254,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1643,8 +1279,8 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>128</v>
@@ -1673,7 +1309,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="70">
+      <c r="A8" s="91">
         <v>2</v>
       </c>
       <c r="B8" s="34">
@@ -1693,8 +1329,8 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="70">
+      <c r="A9" s="92"/>
+      <c r="B9" s="91">
         <v>1</v>
       </c>
       <c r="C9" s="2">
@@ -1722,8 +1358,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="32">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1750,8 +1386,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="33">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1775,8 +1411,8 @@
       <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="32">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1800,8 +1436,8 @@
       <c r="J12" s="27"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="33">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -1825,8 +1461,8 @@
       <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="32">
         <f t="shared" si="0"/>
         <v>129</v>
@@ -1850,8 +1486,8 @@
       <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="33">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1875,8 +1511,8 @@
       <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="32">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1900,8 +1536,8 @@
       <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="33">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -1925,8 +1561,8 @@
       <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="32">
         <f t="shared" si="0"/>
         <v>136</v>
@@ -1945,15 +1581,13 @@
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>12</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="33">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -1977,8 +1611,8 @@
       <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="71"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="8">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -2002,7 +1636,7 @@
       <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="72"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="34">
         <v>2</v>
       </c>
@@ -2033,7 +1667,7 @@
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="70">
+      <c r="A23" s="91">
         <v>3</v>
       </c>
       <c r="B23" s="47">
@@ -2053,8 +1687,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="78">
+      <c r="A24" s="92"/>
+      <c r="B24" s="94">
         <v>1</v>
       </c>
       <c r="C24" s="2">
@@ -2082,8 +1716,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="5">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2109,8 +1743,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="71"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="32">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -2134,8 +1768,8 @@
       <c r="J26" s="27"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="71"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="5">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -2161,8 +1795,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
-      <c r="B28" s="79"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="33">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2188,8 +1822,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="5">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2215,8 +1849,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="32">
         <f t="shared" si="1"/>
         <v>137</v>
@@ -2240,8 +1874,8 @@
       <c r="J30" s="27"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="79"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="5">
         <f t="shared" si="1"/>
         <v>138</v>
@@ -2267,8 +1901,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="33">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -2292,8 +1926,8 @@
       <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="5">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -2317,8 +1951,8 @@
       <c r="J33" s="7"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
-      <c r="B34" s="79"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="32">
         <f t="shared" si="1"/>
         <v>161</v>
@@ -2342,8 +1976,8 @@
       <c r="J34" s="27"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="33">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -2367,8 +2001,8 @@
       <c r="J35" s="28"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="5">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -2392,8 +2026,8 @@
       <c r="J36" s="7"/>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="71"/>
-      <c r="B37" s="79"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="5">
         <f t="shared" si="1"/>
         <v>168</v>
@@ -2417,8 +2051,8 @@
       <c r="J37" s="7"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="78">
+      <c r="A38" s="92"/>
+      <c r="B38" s="94">
         <v>2</v>
       </c>
       <c r="C38" s="36">
@@ -2446,8 +2080,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="45">
         <f t="shared" si="2"/>
         <v>42</v>
@@ -2471,8 +2105,8 @@
       <c r="J39" s="27"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="79"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="37">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -2498,8 +2132,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="79"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="46">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -2525,8 +2159,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="71"/>
-      <c r="B42" s="79"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="45">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -2550,8 +2184,8 @@
       <c r="J42" s="27"/>
     </row>
     <row r="43" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="71"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="37">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2577,8 +2211,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="73">
+      <c r="A44" s="92"/>
+      <c r="B44" s="86">
         <v>3</v>
       </c>
       <c r="C44" s="36">
@@ -2606,8 +2240,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="74"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="37">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -2633,8 +2267,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="74"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="37">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -2658,8 +2292,8 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="71"/>
-      <c r="B47" s="75"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="38">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -2683,8 +2317,8 @@
       <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="70">
+      <c r="A48" s="92"/>
+      <c r="B48" s="91">
         <v>4</v>
       </c>
       <c r="C48" s="36">
@@ -2710,8 +2344,8 @@
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="38">
         <f t="shared" si="3"/>
         <v>83</v>
@@ -2749,7 +2383,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="70">
+      <c r="A52" s="91">
         <v>4</v>
       </c>
       <c r="B52" s="34">
@@ -2769,8 +2403,8 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="76">
+      <c r="A53" s="92"/>
+      <c r="B53" s="85">
         <v>1</v>
       </c>
       <c r="C53" s="36">
@@ -2798,8 +2432,8 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="77"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="87"/>
       <c r="C54" s="37">
         <f t="shared" si="4"/>
         <v>169</v>
@@ -2825,8 +2459,8 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="77"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="37">
         <f t="shared" si="4"/>
         <v>169</v>
@@ -2852,8 +2486,8 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="77"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="87"/>
       <c r="C56" s="45">
         <f t="shared" si="4"/>
         <v>169</v>
@@ -2877,8 +2511,8 @@
       <c r="J56" s="27"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="77"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="46">
         <f t="shared" si="4"/>
         <v>170</v>
@@ -2904,8 +2538,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="71"/>
-      <c r="B58" s="77"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="87"/>
       <c r="C58" s="45">
         <f t="shared" si="4"/>
         <v>170</v>
@@ -2931,8 +2565,8 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A59" s="71"/>
-      <c r="B59" s="77"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="87"/>
       <c r="C59" s="37">
         <f t="shared" si="4"/>
         <v>178</v>
@@ -2958,8 +2592,8 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="77"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="87"/>
       <c r="C60" s="37">
         <f t="shared" si="4"/>
         <v>179</v>
@@ -2985,8 +2619,8 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="77"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="87"/>
       <c r="C61" s="37">
         <f t="shared" si="4"/>
         <v>210</v>
@@ -3012,8 +2646,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="71"/>
-      <c r="B62" s="77"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="87"/>
       <c r="C62" s="37">
         <f t="shared" si="4"/>
         <v>211</v>
@@ -3039,8 +2673,8 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="70">
+      <c r="A63" s="92"/>
+      <c r="B63" s="91">
         <v>2</v>
       </c>
       <c r="C63" s="2">
@@ -3068,8 +2702,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="5">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -3094,9 +2728,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="32">
         <f t="shared" si="5"/>
         <v>170</v>
@@ -3119,9 +2753,9 @@
       </c>
       <c r="J65" s="27"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="33">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -3146,9 +2780,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="32">
         <f t="shared" si="5"/>
         <v>178</v>
@@ -3171,9 +2805,9 @@
       </c>
       <c r="J67" s="27"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="5">
         <f t="shared" si="5"/>
         <v>179</v>
@@ -3198,9 +2832,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="92"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="5">
         <f t="shared" si="5"/>
         <v>180</v>
@@ -3225,9 +2859,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="5">
         <f t="shared" si="5"/>
         <v>211</v>
@@ -3252,9 +2886,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="71"/>
-      <c r="B71" s="72"/>
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="92"/>
+      <c r="B71" s="93"/>
       <c r="C71" s="8">
         <f t="shared" si="5"/>
         <v>212</v>
@@ -3279,9 +2913,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="71"/>
-      <c r="B72" s="70">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="92"/>
+      <c r="B72" s="91">
         <v>3</v>
       </c>
       <c r="C72" s="2">
@@ -3307,10 +2941,16 @@
       <c r="J72" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
+      <c r="M72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="32">
         <f t="shared" si="6"/>
         <v>178</v>
@@ -3332,10 +2972,16 @@
         <v>16</v>
       </c>
       <c r="J73" s="27"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
+      <c r="M73" s="100">
+        <v>1234</v>
+      </c>
+      <c r="N73">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="5">
         <f t="shared" si="6"/>
         <v>187</v>
@@ -3357,10 +3003,16 @@
         <v>16</v>
       </c>
       <c r="J74" s="7"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
+      <c r="M74" s="100">
+        <v>1243</v>
+      </c>
+      <c r="N74">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="92"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="5">
         <f t="shared" si="6"/>
         <v>188</v>
@@ -3384,10 +3036,16 @@
       <c r="J75" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
+      <c r="M75" s="100">
+        <v>1324</v>
+      </c>
+      <c r="N75">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="5">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -3409,10 +3067,16 @@
         <v>16</v>
       </c>
       <c r="J76" s="7"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
+      <c r="M76" s="100">
+        <v>1342</v>
+      </c>
+      <c r="N76">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="5">
         <f t="shared" si="6"/>
         <v>219</v>
@@ -3436,10 +3100,16 @@
       <c r="J77" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="71"/>
-      <c r="B78" s="72"/>
+      <c r="M77">
+        <v>1423</v>
+      </c>
+      <c r="N77">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="92"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="8">
         <f t="shared" si="6"/>
         <v>220</v>
@@ -3463,10 +3133,16 @@
       <c r="J78" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="71"/>
-      <c r="B79" s="70">
+      <c r="M78">
+        <v>1432</v>
+      </c>
+      <c r="N78">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="92"/>
+      <c r="B79" s="91">
         <v>4</v>
       </c>
       <c r="C79" s="2">
@@ -3490,10 +3166,16 @@
         <v>16</v>
       </c>
       <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
+      <c r="M79">
+        <v>2134</v>
+      </c>
+      <c r="N79">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="5">
         <f t="shared" si="5"/>
         <v>220</v>
@@ -3517,10 +3199,16 @@
       <c r="J80" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
+      <c r="M80">
+        <v>2143</v>
+      </c>
+      <c r="N80">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="5">
         <f t="shared" si="5"/>
         <v>251</v>
@@ -3544,10 +3232,16 @@
       <c r="J81" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="71"/>
-      <c r="B82" s="72"/>
+      <c r="M81">
+        <v>2314</v>
+      </c>
+      <c r="N81">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="92"/>
+      <c r="B82" s="93"/>
       <c r="C82" s="8">
         <f t="shared" si="5"/>
         <v>252</v>
@@ -3571,10 +3265,16 @@
       <c r="J82" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71">
+      <c r="M82">
+        <v>2341</v>
+      </c>
+      <c r="N82">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="92"/>
+      <c r="B83" s="92">
         <v>5</v>
       </c>
       <c r="C83" s="5">
@@ -3598,10 +3298,16 @@
         <v>16</v>
       </c>
       <c r="J83" s="7"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
+      <c r="M83">
+        <v>2413</v>
+      </c>
+      <c r="N83">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="92"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="5">
         <f t="shared" si="7"/>
         <v>379</v>
@@ -3623,10 +3329,16 @@
         <v>16</v>
       </c>
       <c r="J84" s="7"/>
-    </row>
-    <row r="85" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
+      <c r="M84">
+        <v>2431</v>
+      </c>
+      <c r="N84">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="93"/>
+      <c r="B85" s="93"/>
       <c r="C85" s="8">
         <f t="shared" si="7"/>
         <v>380</v>
@@ -3648,11 +3360,23 @@
         <v>16</v>
       </c>
       <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>3124</v>
+      </c>
+      <c r="N85">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C86"/>
-    </row>
-    <row r="87" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M86">
+        <v>3142</v>
+      </c>
+      <c r="N86">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="48"/>
       <c r="B87" s="48"/>
       <c r="C87" s="48"/>
@@ -3663,13 +3387,19 @@
       <c r="H87" s="48"/>
       <c r="I87" s="48"/>
       <c r="J87" s="48"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A88" s="76" t="s">
+      <c r="M87">
+        <v>3214</v>
+      </c>
+      <c r="N87">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="73"/>
-      <c r="C88" s="36">
+      <c r="B88" s="86"/>
+      <c r="C88" s="98">
         <f t="shared" ref="C88:C95" si="8">D88+E88*8+F88*32+G88*128</f>
         <v>169</v>
       </c>
@@ -3685,11 +3415,18 @@
       <c r="G88" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A89" s="77"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="37">
+      <c r="H88" s="11"/>
+      <c r="M88">
+        <v>3241</v>
+      </c>
+      <c r="N88">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="87"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="99">
         <f t="shared" si="8"/>
         <v>170</v>
       </c>
@@ -3705,11 +3442,17 @@
       <c r="G89" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A90" s="77"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="37">
+      <c r="M89">
+        <v>3412</v>
+      </c>
+      <c r="N89">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="87"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="99">
         <f t="shared" si="8"/>
         <v>178</v>
       </c>
@@ -3725,11 +3468,17 @@
       <c r="G90" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="77"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="37">
+      <c r="M90">
+        <v>3421</v>
+      </c>
+      <c r="N90">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="87"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="99">
         <f t="shared" si="8"/>
         <v>187</v>
       </c>
@@ -3745,11 +3494,17 @@
       <c r="G91" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A92" s="77"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="37">
+      <c r="M91">
+        <v>4123</v>
+      </c>
+      <c r="N91">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="87"/>
+      <c r="B92" s="88"/>
+      <c r="C92" s="99">
         <f t="shared" si="8"/>
         <v>210</v>
       </c>
@@ -3765,11 +3520,17 @@
       <c r="G92" s="49">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A93" s="77"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="37">
+      <c r="M92">
+        <v>4132</v>
+      </c>
+      <c r="N92">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="87"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="99">
         <f t="shared" si="8"/>
         <v>348</v>
       </c>
@@ -3785,11 +3546,17 @@
       <c r="G93" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A94" s="77"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="37">
+      <c r="M93">
+        <v>4213</v>
+      </c>
+      <c r="N93">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="87"/>
+      <c r="B94" s="88"/>
+      <c r="C94" s="99">
         <f t="shared" si="8"/>
         <v>379</v>
       </c>
@@ -3805,11 +3572,17 @@
       <c r="G94" s="49">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="81"/>
-      <c r="B95" s="75"/>
-      <c r="C95" s="38">
+      <c r="M94">
+        <v>4231</v>
+      </c>
+      <c r="N94">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="89"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="97">
         <f t="shared" si="8"/>
         <v>380</v>
       </c>
@@ -3825,9 +3598,22 @@
       <c r="G95" s="50">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H95" s="11"/>
+      <c r="M95">
+        <v>4312</v>
+      </c>
+      <c r="N95">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C96"/>
+      <c r="M96" s="100">
+        <v>4321</v>
+      </c>
+      <c r="N96">
+        <v>169</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="48"/>
@@ -4275,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112" s="84" t="s">
+      <c r="I112" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="J112" s="86" t="s">
+      <c r="J112" s="79" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4306,8 +4092,8 @@
         <v>0</v>
       </c>
       <c r="H113" s="6"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="87"/>
+      <c r="I113" s="78"/>
+      <c r="J113" s="80"/>
     </row>
     <row r="114" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="18">
@@ -4751,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="H128" s="3"/>
-      <c r="I128" s="88" t="s">
+      <c r="I128" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J128" s="90" t="s">
+      <c r="J128" s="83" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4782,8 +4568,8 @@
         <v>1</v>
       </c>
       <c r="H129" s="6"/>
-      <c r="I129" s="89"/>
-      <c r="J129" s="82"/>
+      <c r="I129" s="82"/>
+      <c r="J129" s="75"/>
     </row>
     <row r="130" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A130" s="18">
@@ -5281,10 +5067,10 @@
         <v>1</v>
       </c>
       <c r="H146" s="3"/>
-      <c r="I146" s="88" t="s">
+      <c r="I146" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="J146" s="90" t="s">
+      <c r="J146" s="83" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5312,8 +5098,8 @@
         <v>1</v>
       </c>
       <c r="H147" s="6"/>
-      <c r="I147" s="89"/>
-      <c r="J147" s="82"/>
+      <c r="I147" s="82"/>
+      <c r="J147" s="75"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="17">
@@ -5368,10 +5154,10 @@
         <v>1</v>
       </c>
       <c r="H149" s="6"/>
-      <c r="I149" s="89" t="s">
+      <c r="I149" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="J149" s="82" t="s">
+      <c r="J149" s="75" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5399,8 +5185,8 @@
         <v>1</v>
       </c>
       <c r="H150" s="9"/>
-      <c r="I150" s="91"/>
-      <c r="J150" s="83"/>
+      <c r="I150" s="84"/>
+      <c r="J150" s="76"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="19">
@@ -5515,10 +5301,10 @@
         <v>1</v>
       </c>
       <c r="H154" s="6"/>
-      <c r="I154" s="89" t="s">
+      <c r="I154" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="J154" s="82" t="s">
+      <c r="J154" s="75" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5546,8 +5332,8 @@
         <v>1</v>
       </c>
       <c r="H155" s="9"/>
-      <c r="I155" s="91"/>
-      <c r="J155" s="83"/>
+      <c r="I155" s="84"/>
+      <c r="J155" s="76"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="19">
@@ -6128,9 +5914,25 @@
     </row>
   </sheetData>
   <sortState ref="A152:J156">
-    <sortCondition sortBy="cellColor" ref="G152:G156" dxfId="62"/>
+    <sortCondition sortBy="cellColor" ref="G152:G156" dxfId="20"/>
   </sortState>
   <mergeCells count="26">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="A8:A21"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A23:A49"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="B24:B37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A88:B95"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="B72:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A52:A85"/>
     <mergeCell ref="J154:J155"/>
     <mergeCell ref="I112:I113"/>
     <mergeCell ref="J112:J113"/>
@@ -6141,62 +5943,46 @@
     <mergeCell ref="I149:I150"/>
     <mergeCell ref="J149:J150"/>
     <mergeCell ref="I154:I155"/>
-    <mergeCell ref="A88:B95"/>
-    <mergeCell ref="B63:B71"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A52:A85"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A23:A49"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="B24:B37"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="A8:A21"/>
-    <mergeCell ref="B44:B47"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D47 D50:D51 D86:D87 D175:D1048576 D96:D143">
-    <cfRule type="cellIs" dxfId="31" priority="90" operator="greaterThan">
+  <conditionalFormatting sqref="D1:D47 D50:D51 D86:D87 D96:D143 D175:D1048576">
+    <cfRule type="cellIs" dxfId="19" priority="90" operator="greaterThan">
       <formula>E1+1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E47 E50:E51 E86:E87 E175:E1048576 E96:E143">
+  <conditionalFormatting sqref="E1:E47 E50:E51 E86:E87 E96:E143 E175:E1048576">
     <cfRule type="cellIs" priority="83" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="89" operator="greaterThan">
       <formula>D1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F47 F50:F51 F86:F87 F175:F1048576 F96:F143">
+  <conditionalFormatting sqref="F1:F47 F50:F51 F86:F87 F96:F143 F175:F1048576">
     <cfRule type="cellIs" priority="86" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="87" operator="greaterThan">
       <formula>E1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1 G6:G37 G43 G86:G87 G96:G98 G175:G1048576">
-    <cfRule type="cellIs" dxfId="28" priority="84" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="16" priority="84" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="85" operator="greaterThan">
       <formula>E1-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="cellIs" dxfId="26" priority="49" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="14" priority="49" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="50" operator="greaterThan">
       <formula>E47-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D49">
-    <cfRule type="cellIs" dxfId="24" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="47" operator="greaterThan">
       <formula>E48+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6204,7 +5990,7 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="46" operator="greaterThan">
       <formula>D48</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6212,12 +5998,12 @@
     <cfRule type="cellIs" priority="44" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="45" operator="greaterThan">
       <formula>E48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D146:D147">
-    <cfRule type="cellIs" dxfId="21" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="greaterThan">
       <formula>E146+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6225,7 +6011,7 @@
     <cfRule type="cellIs" priority="8" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="greaterThan">
       <formula>D146</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6233,28 +6019,28 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>E146</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:G133 G139">
-    <cfRule type="cellIs" dxfId="18" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="greaterThan">
       <formula>E102-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G143">
-    <cfRule type="cellIs" dxfId="16" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
       <formula>E143-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D144:D145">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="greaterThan">
       <formula>E144+1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6262,7 +6048,7 @@
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="lessThanOrEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
       <formula>D144</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6270,7 +6056,7 @@
     <cfRule type="cellIs" priority="2" stopIfTrue="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>E144</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6283,14 +6069,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="94" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="72" customWidth="1"/>
     <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -6319,16 +6105,16 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95">
-        <v>1</v>
-      </c>
-      <c r="B2" s="95">
-        <v>1</v>
-      </c>
-      <c r="C2" s="92">
-        <v>1</v>
-      </c>
-      <c r="D2" s="92">
+      <c r="A2" s="73">
+        <v>1</v>
+      </c>
+      <c r="B2" s="73">
+        <v>1</v>
+      </c>
+      <c r="C2" s="70">
+        <v>1</v>
+      </c>
+      <c r="D2" s="70">
         <v>1</v>
       </c>
       <c r="E2" s="6">
@@ -6342,16 +6128,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="95">
+      <c r="A3" s="73">
         <v>8</v>
       </c>
-      <c r="B3" s="96">
-        <v>2</v>
-      </c>
-      <c r="C3" s="92">
-        <v>1</v>
-      </c>
-      <c r="D3" s="92">
+      <c r="B3" s="74">
+        <v>2</v>
+      </c>
+      <c r="C3" s="70">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70">
         <v>1</v>
       </c>
       <c r="E3" s="6">
@@ -6365,16 +6151,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="95">
+      <c r="A4" s="73">
         <v>9</v>
       </c>
-      <c r="B4" s="95">
-        <v>1</v>
-      </c>
-      <c r="C4" s="92">
-        <v>2</v>
-      </c>
-      <c r="D4" s="92">
+      <c r="B4" s="73">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70">
+        <v>2</v>
+      </c>
+      <c r="D4" s="70">
         <v>1</v>
       </c>
       <c r="E4" s="6">
@@ -6388,16 +6174,16 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="95">
+      <c r="A5" s="73">
         <v>9</v>
       </c>
-      <c r="B5" s="96">
-        <v>2</v>
-      </c>
-      <c r="C5" s="92">
-        <v>2</v>
-      </c>
-      <c r="D5" s="92">
+      <c r="B5" s="74">
+        <v>2</v>
+      </c>
+      <c r="C5" s="70">
+        <v>2</v>
+      </c>
+      <c r="D5" s="70">
         <v>1</v>
       </c>
       <c r="E5" s="6">
@@ -6411,16 +6197,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="95">
+      <c r="A6" s="73">
         <v>10</v>
       </c>
-      <c r="B6" s="96">
-        <v>2</v>
-      </c>
-      <c r="C6" s="92">
-        <v>2</v>
-      </c>
-      <c r="D6" s="93">
+      <c r="B6" s="74">
+        <v>2</v>
+      </c>
+      <c r="C6" s="70">
+        <v>2</v>
+      </c>
+      <c r="D6" s="71">
         <v>2</v>
       </c>
       <c r="E6" s="6">
@@ -6428,16 +6214,16 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="95">
+      <c r="A7" s="73">
         <v>32</v>
       </c>
-      <c r="B7" s="96">
-        <v>3</v>
-      </c>
-      <c r="C7" s="92">
-        <v>1</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="B7" s="74">
+        <v>3</v>
+      </c>
+      <c r="C7" s="70">
+        <v>1</v>
+      </c>
+      <c r="D7" s="70">
         <v>1</v>
       </c>
       <c r="E7" s="6">
@@ -6445,16 +6231,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="95">
+      <c r="A8" s="73">
         <v>33</v>
       </c>
-      <c r="B8" s="95">
-        <v>1</v>
-      </c>
-      <c r="C8" s="92">
-        <v>2</v>
-      </c>
-      <c r="D8" s="92">
+      <c r="B8" s="73">
+        <v>1</v>
+      </c>
+      <c r="C8" s="70">
+        <v>2</v>
+      </c>
+      <c r="D8" s="70">
         <v>1</v>
       </c>
       <c r="E8" s="6">
@@ -6462,16 +6248,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="95">
+      <c r="A9" s="73">
         <v>33</v>
       </c>
-      <c r="B9" s="96">
-        <v>3</v>
-      </c>
-      <c r="C9" s="92">
-        <v>2</v>
-      </c>
-      <c r="D9" s="92">
+      <c r="B9" s="74">
+        <v>3</v>
+      </c>
+      <c r="C9" s="70">
+        <v>2</v>
+      </c>
+      <c r="D9" s="70">
         <v>1</v>
       </c>
       <c r="E9" s="6">
@@ -6479,16 +6265,16 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="95">
+      <c r="A10" s="73">
         <v>40</v>
       </c>
-      <c r="B10" s="96">
-        <v>2</v>
-      </c>
-      <c r="C10" s="92">
-        <v>2</v>
-      </c>
-      <c r="D10" s="92">
+      <c r="B10" s="74">
+        <v>2</v>
+      </c>
+      <c r="C10" s="70">
+        <v>2</v>
+      </c>
+      <c r="D10" s="70">
         <v>1</v>
       </c>
       <c r="E10" s="6">
@@ -6496,16 +6282,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="95">
+      <c r="A11" s="73">
         <v>40</v>
       </c>
-      <c r="B11" s="96">
-        <v>3</v>
-      </c>
-      <c r="C11" s="92">
-        <v>2</v>
-      </c>
-      <c r="D11" s="92">
+      <c r="B11" s="74">
+        <v>3</v>
+      </c>
+      <c r="C11" s="70">
+        <v>2</v>
+      </c>
+      <c r="D11" s="70">
         <v>1</v>
       </c>
       <c r="E11" s="6">
@@ -6513,16 +6299,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="95">
+      <c r="A12" s="73">
         <v>41</v>
       </c>
-      <c r="B12" s="95">
-        <v>1</v>
-      </c>
-      <c r="C12" s="92">
-        <v>3</v>
-      </c>
-      <c r="D12" s="92">
+      <c r="B12" s="73">
+        <v>1</v>
+      </c>
+      <c r="C12" s="70">
+        <v>3</v>
+      </c>
+      <c r="D12" s="70">
         <v>1</v>
       </c>
       <c r="E12" s="6">
@@ -6530,16 +6316,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="95">
+      <c r="A13" s="73">
         <v>41</v>
       </c>
-      <c r="B13" s="96">
-        <v>2</v>
-      </c>
-      <c r="C13" s="92">
-        <v>3</v>
-      </c>
-      <c r="D13" s="92">
+      <c r="B13" s="74">
+        <v>2</v>
+      </c>
+      <c r="C13" s="70">
+        <v>3</v>
+      </c>
+      <c r="D13" s="70">
         <v>1</v>
       </c>
       <c r="E13" s="6">
@@ -6547,16 +6333,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="95">
+      <c r="A14" s="73">
         <v>41</v>
       </c>
-      <c r="B14" s="96">
-        <v>3</v>
-      </c>
-      <c r="C14" s="92">
-        <v>3</v>
-      </c>
-      <c r="D14" s="92">
+      <c r="B14" s="74">
+        <v>3</v>
+      </c>
+      <c r="C14" s="70">
+        <v>3</v>
+      </c>
+      <c r="D14" s="70">
         <v>1</v>
       </c>
       <c r="E14" s="6">
@@ -6564,16 +6350,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="95">
+      <c r="A15" s="73">
         <v>42</v>
       </c>
-      <c r="B15" s="96">
-        <v>2</v>
-      </c>
-      <c r="C15" s="92">
-        <v>3</v>
-      </c>
-      <c r="D15" s="92">
+      <c r="B15" s="74">
+        <v>2</v>
+      </c>
+      <c r="C15" s="70">
+        <v>3</v>
+      </c>
+      <c r="D15" s="70">
         <v>2</v>
       </c>
       <c r="E15" s="6">
@@ -6581,16 +6367,16 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="95">
+      <c r="A16" s="73">
         <v>42</v>
       </c>
-      <c r="B16" s="96">
-        <v>3</v>
-      </c>
-      <c r="C16" s="92">
-        <v>3</v>
-      </c>
-      <c r="D16" s="92">
+      <c r="B16" s="74">
+        <v>3</v>
+      </c>
+      <c r="C16" s="70">
+        <v>3</v>
+      </c>
+      <c r="D16" s="70">
         <v>1</v>
       </c>
       <c r="E16" s="6">
@@ -6598,16 +6384,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="95">
+      <c r="A17" s="73">
         <v>42</v>
       </c>
-      <c r="B17" s="96">
-        <v>3</v>
-      </c>
-      <c r="C17" s="92">
-        <v>3</v>
-      </c>
-      <c r="D17" s="92">
+      <c r="B17" s="74">
+        <v>3</v>
+      </c>
+      <c r="C17" s="70">
+        <v>3</v>
+      </c>
+      <c r="D17" s="70">
         <v>2</v>
       </c>
       <c r="E17" s="6">
@@ -6615,16 +6401,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="95">
+      <c r="A18" s="73">
         <v>50</v>
       </c>
-      <c r="B18" s="96">
-        <v>3</v>
-      </c>
-      <c r="C18" s="92">
-        <v>3</v>
-      </c>
-      <c r="D18" s="92">
+      <c r="B18" s="74">
+        <v>3</v>
+      </c>
+      <c r="C18" s="70">
+        <v>3</v>
+      </c>
+      <c r="D18" s="70">
         <v>2</v>
       </c>
       <c r="E18" s="6">
@@ -6632,16 +6418,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="95">
+      <c r="A19" s="73">
         <v>50</v>
       </c>
-      <c r="B19" s="96">
-        <v>3</v>
-      </c>
-      <c r="C19" s="92">
-        <v>3</v>
-      </c>
-      <c r="D19" s="92">
+      <c r="B19" s="74">
+        <v>3</v>
+      </c>
+      <c r="C19" s="70">
+        <v>3</v>
+      </c>
+      <c r="D19" s="70">
         <v>3</v>
       </c>
       <c r="E19" s="6">
@@ -6649,16 +6435,16 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="95">
+      <c r="A20" s="73">
         <v>51</v>
       </c>
-      <c r="B20" s="96">
-        <v>3</v>
-      </c>
-      <c r="C20" s="92">
-        <v>3</v>
-      </c>
-      <c r="D20" s="92">
+      <c r="B20" s="74">
+        <v>3</v>
+      </c>
+      <c r="C20" s="70">
+        <v>3</v>
+      </c>
+      <c r="D20" s="70">
         <v>3</v>
       </c>
       <c r="E20" s="6">
@@ -6666,16 +6452,16 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="95">
+      <c r="A21" s="73">
         <v>82</v>
       </c>
-      <c r="B21" s="96">
-        <v>3</v>
-      </c>
-      <c r="C21" s="92">
-        <v>3</v>
-      </c>
-      <c r="D21" s="92">
+      <c r="B21" s="74">
+        <v>3</v>
+      </c>
+      <c r="C21" s="70">
+        <v>3</v>
+      </c>
+      <c r="D21" s="70">
         <v>4</v>
       </c>
       <c r="E21" s="6">
@@ -6683,16 +6469,16 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="95">
+      <c r="A22" s="73">
         <v>83</v>
       </c>
-      <c r="B22" s="96">
-        <v>3</v>
-      </c>
-      <c r="C22" s="92">
-        <v>3</v>
-      </c>
-      <c r="D22" s="92">
+      <c r="B22" s="74">
+        <v>3</v>
+      </c>
+      <c r="C22" s="70">
+        <v>3</v>
+      </c>
+      <c r="D22" s="70">
         <v>4</v>
       </c>
       <c r="E22" s="6">
@@ -6700,16 +6486,16 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="95">
+      <c r="A23" s="73">
         <v>128</v>
       </c>
-      <c r="B23" s="96">
-        <v>4</v>
-      </c>
-      <c r="C23" s="92">
-        <v>1</v>
-      </c>
-      <c r="D23" s="92">
+      <c r="B23" s="74">
+        <v>4</v>
+      </c>
+      <c r="C23" s="70">
+        <v>1</v>
+      </c>
+      <c r="D23" s="70">
         <v>1</v>
       </c>
       <c r="E23" s="6">
@@ -6717,16 +6503,16 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="95">
+      <c r="A24" s="73">
         <v>129</v>
       </c>
-      <c r="B24" s="95">
-        <v>1</v>
-      </c>
-      <c r="C24" s="92">
-        <v>2</v>
-      </c>
-      <c r="D24" s="92">
+      <c r="B24" s="73">
+        <v>1</v>
+      </c>
+      <c r="C24" s="70">
+        <v>2</v>
+      </c>
+      <c r="D24" s="70">
         <v>1</v>
       </c>
       <c r="E24" s="6">
@@ -6734,16 +6520,16 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="95">
+      <c r="A25" s="73">
         <v>129</v>
       </c>
-      <c r="B25" s="96">
-        <v>4</v>
-      </c>
-      <c r="C25" s="92">
-        <v>2</v>
-      </c>
-      <c r="D25" s="92">
+      <c r="B25" s="74">
+        <v>4</v>
+      </c>
+      <c r="C25" s="70">
+        <v>2</v>
+      </c>
+      <c r="D25" s="70">
         <v>1</v>
       </c>
       <c r="E25" s="6">
@@ -6751,33 +6537,33 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="95">
+      <c r="A26" s="73">
         <v>136</v>
       </c>
-      <c r="B26" s="96">
-        <v>2</v>
-      </c>
-      <c r="C26" s="92">
-        <v>2</v>
-      </c>
-      <c r="D26" s="92">
+      <c r="B26" s="74">
+        <v>2</v>
+      </c>
+      <c r="C26" s="70">
+        <v>2</v>
+      </c>
+      <c r="D26" s="70">
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="95">
+      <c r="A27" s="73">
         <v>136</v>
       </c>
-      <c r="B27" s="96">
-        <v>4</v>
-      </c>
-      <c r="C27" s="92">
-        <v>2</v>
-      </c>
-      <c r="D27" s="92">
+      <c r="B27" s="74">
+        <v>4</v>
+      </c>
+      <c r="C27" s="70">
+        <v>2</v>
+      </c>
+      <c r="D27" s="70">
         <v>1</v>
       </c>
       <c r="E27" s="6">
@@ -6785,16 +6571,16 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="95">
+      <c r="A28" s="73">
         <v>137</v>
       </c>
-      <c r="B28" s="95">
-        <v>1</v>
-      </c>
-      <c r="C28" s="92">
-        <v>3</v>
-      </c>
-      <c r="D28" s="92">
+      <c r="B28" s="73">
+        <v>1</v>
+      </c>
+      <c r="C28" s="70">
+        <v>3</v>
+      </c>
+      <c r="D28" s="70">
         <v>1</v>
       </c>
       <c r="E28" s="6">
@@ -6802,16 +6588,16 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="95">
+      <c r="A29" s="73">
         <v>137</v>
       </c>
-      <c r="B29" s="96">
-        <v>2</v>
-      </c>
-      <c r="C29" s="92">
-        <v>3</v>
-      </c>
-      <c r="D29" s="92">
+      <c r="B29" s="74">
+        <v>2</v>
+      </c>
+      <c r="C29" s="70">
+        <v>3</v>
+      </c>
+      <c r="D29" s="70">
         <v>1</v>
       </c>
       <c r="E29" s="6">
@@ -6819,16 +6605,16 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="95">
+      <c r="A30" s="73">
         <v>137</v>
       </c>
-      <c r="B30" s="96">
-        <v>4</v>
-      </c>
-      <c r="C30" s="92">
-        <v>3</v>
-      </c>
-      <c r="D30" s="92">
+      <c r="B30" s="74">
+        <v>4</v>
+      </c>
+      <c r="C30" s="70">
+        <v>3</v>
+      </c>
+      <c r="D30" s="70">
         <v>1</v>
       </c>
       <c r="E30" s="6">
@@ -6836,16 +6622,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="95">
+      <c r="A31" s="73">
         <v>138</v>
       </c>
-      <c r="B31" s="96">
-        <v>2</v>
-      </c>
-      <c r="C31" s="92">
-        <v>3</v>
-      </c>
-      <c r="D31" s="92">
+      <c r="B31" s="74">
+        <v>2</v>
+      </c>
+      <c r="C31" s="70">
+        <v>3</v>
+      </c>
+      <c r="D31" s="70">
         <v>2</v>
       </c>
       <c r="E31" s="6">
@@ -6853,16 +6639,16 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="95">
+      <c r="A32" s="73">
         <v>138</v>
       </c>
-      <c r="B32" s="96">
-        <v>4</v>
-      </c>
-      <c r="C32" s="92">
-        <v>3</v>
-      </c>
-      <c r="D32" s="92">
+      <c r="B32" s="74">
+        <v>4</v>
+      </c>
+      <c r="C32" s="70">
+        <v>3</v>
+      </c>
+      <c r="D32" s="70">
         <v>1</v>
       </c>
       <c r="E32" s="6">
@@ -6870,16 +6656,16 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="95">
+      <c r="A33" s="73">
         <v>138</v>
       </c>
-      <c r="B33" s="96">
-        <v>4</v>
-      </c>
-      <c r="C33" s="92">
-        <v>3</v>
-      </c>
-      <c r="D33" s="92">
+      <c r="B33" s="74">
+        <v>4</v>
+      </c>
+      <c r="C33" s="70">
+        <v>3</v>
+      </c>
+      <c r="D33" s="70">
         <v>2</v>
       </c>
       <c r="E33" s="6">
@@ -6887,16 +6673,16 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="95">
+      <c r="A34" s="73">
         <v>146</v>
       </c>
-      <c r="B34" s="96">
-        <v>4</v>
-      </c>
-      <c r="C34" s="92">
-        <v>3</v>
-      </c>
-      <c r="D34" s="92">
+      <c r="B34" s="74">
+        <v>4</v>
+      </c>
+      <c r="C34" s="70">
+        <v>3</v>
+      </c>
+      <c r="D34" s="70">
         <v>2</v>
       </c>
       <c r="E34" s="6">
@@ -6904,16 +6690,16 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="95">
+      <c r="A35" s="73">
         <v>146</v>
       </c>
-      <c r="B35" s="96">
-        <v>4</v>
-      </c>
-      <c r="C35" s="92">
-        <v>3</v>
-      </c>
-      <c r="D35" s="92">
+      <c r="B35" s="74">
+        <v>4</v>
+      </c>
+      <c r="C35" s="70">
+        <v>3</v>
+      </c>
+      <c r="D35" s="70">
         <v>3</v>
       </c>
       <c r="E35" s="6">
@@ -6921,16 +6707,16 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="95">
+      <c r="A36" s="73">
         <v>147</v>
       </c>
-      <c r="B36" s="96">
-        <v>4</v>
-      </c>
-      <c r="C36" s="92">
-        <v>3</v>
-      </c>
-      <c r="D36" s="92">
+      <c r="B36" s="74">
+        <v>4</v>
+      </c>
+      <c r="C36" s="70">
+        <v>3</v>
+      </c>
+      <c r="D36" s="70">
         <v>3</v>
       </c>
       <c r="E36" s="6">
@@ -6938,16 +6724,16 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="95">
+      <c r="A37" s="73">
         <v>160</v>
       </c>
-      <c r="B37" s="96">
-        <v>3</v>
-      </c>
-      <c r="C37" s="92">
-        <v>2</v>
-      </c>
-      <c r="D37" s="92">
+      <c r="B37" s="74">
+        <v>3</v>
+      </c>
+      <c r="C37" s="70">
+        <v>2</v>
+      </c>
+      <c r="D37" s="70">
         <v>1</v>
       </c>
       <c r="E37" s="6">
@@ -6955,16 +6741,16 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="95">
+      <c r="A38" s="73">
         <v>160</v>
       </c>
-      <c r="B38" s="96">
-        <v>4</v>
-      </c>
-      <c r="C38" s="92">
-        <v>2</v>
-      </c>
-      <c r="D38" s="92">
+      <c r="B38" s="74">
+        <v>4</v>
+      </c>
+      <c r="C38" s="70">
+        <v>2</v>
+      </c>
+      <c r="D38" s="70">
         <v>1</v>
       </c>
       <c r="E38" s="6">
@@ -6972,16 +6758,16 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="95">
+      <c r="A39" s="73">
         <v>161</v>
       </c>
-      <c r="B39" s="95">
-        <v>1</v>
-      </c>
-      <c r="C39" s="92">
-        <v>3</v>
-      </c>
-      <c r="D39" s="92">
+      <c r="B39" s="73">
+        <v>1</v>
+      </c>
+      <c r="C39" s="70">
+        <v>3</v>
+      </c>
+      <c r="D39" s="70">
         <v>1</v>
       </c>
       <c r="E39" s="6">
@@ -6989,16 +6775,16 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="95">
+      <c r="A40" s="73">
         <v>161</v>
       </c>
-      <c r="B40" s="96">
-        <v>3</v>
-      </c>
-      <c r="C40" s="92">
-        <v>3</v>
-      </c>
-      <c r="D40" s="92">
+      <c r="B40" s="74">
+        <v>3</v>
+      </c>
+      <c r="C40" s="70">
+        <v>3</v>
+      </c>
+      <c r="D40" s="70">
         <v>1</v>
       </c>
       <c r="E40" s="6">
@@ -7006,16 +6792,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="95">
+      <c r="A41" s="73">
         <v>161</v>
       </c>
-      <c r="B41" s="96">
-        <v>4</v>
-      </c>
-      <c r="C41" s="92">
-        <v>3</v>
-      </c>
-      <c r="D41" s="92">
+      <c r="B41" s="74">
+        <v>4</v>
+      </c>
+      <c r="C41" s="70">
+        <v>3</v>
+      </c>
+      <c r="D41" s="70">
         <v>1</v>
       </c>
       <c r="E41" s="6">
@@ -7023,16 +6809,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="95">
+      <c r="A42" s="73">
         <v>168</v>
       </c>
-      <c r="B42" s="96">
-        <v>2</v>
-      </c>
-      <c r="C42" s="92">
-        <v>3</v>
-      </c>
-      <c r="D42" s="92">
+      <c r="B42" s="74">
+        <v>2</v>
+      </c>
+      <c r="C42" s="70">
+        <v>3</v>
+      </c>
+      <c r="D42" s="70">
         <v>1</v>
       </c>
       <c r="E42" s="6">
@@ -7040,16 +6826,16 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="95">
+      <c r="A43" s="73">
         <v>168</v>
       </c>
-      <c r="B43" s="96">
-        <v>3</v>
-      </c>
-      <c r="C43" s="92">
-        <v>3</v>
-      </c>
-      <c r="D43" s="92">
+      <c r="B43" s="74">
+        <v>3</v>
+      </c>
+      <c r="C43" s="70">
+        <v>3</v>
+      </c>
+      <c r="D43" s="70">
         <v>1</v>
       </c>
       <c r="E43" s="6">
@@ -7057,16 +6843,16 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="95">
+      <c r="A44" s="73">
         <v>168</v>
       </c>
-      <c r="B44" s="96">
-        <v>4</v>
-      </c>
-      <c r="C44" s="92">
-        <v>3</v>
-      </c>
-      <c r="D44" s="92">
+      <c r="B44" s="74">
+        <v>4</v>
+      </c>
+      <c r="C44" s="70">
+        <v>3</v>
+      </c>
+      <c r="D44" s="70">
         <v>1</v>
       </c>
       <c r="E44" s="6">
@@ -7074,16 +6860,16 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="95">
+      <c r="A45" s="73">
         <v>169</v>
       </c>
-      <c r="B45" s="95">
-        <v>1</v>
-      </c>
-      <c r="C45" s="92">
-        <v>4</v>
-      </c>
-      <c r="D45" s="92">
+      <c r="B45" s="73">
+        <v>1</v>
+      </c>
+      <c r="C45" s="70">
+        <v>4</v>
+      </c>
+      <c r="D45" s="70">
         <v>1</v>
       </c>
       <c r="E45" s="6">
@@ -7091,16 +6877,16 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="95">
+      <c r="A46" s="73">
         <v>169</v>
       </c>
-      <c r="B46" s="96">
-        <v>2</v>
-      </c>
-      <c r="C46" s="92">
-        <v>4</v>
-      </c>
-      <c r="D46" s="92">
+      <c r="B46" s="74">
+        <v>2</v>
+      </c>
+      <c r="C46" s="70">
+        <v>4</v>
+      </c>
+      <c r="D46" s="70">
         <v>1</v>
       </c>
       <c r="E46" s="6">
@@ -7108,16 +6894,16 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="95">
+      <c r="A47" s="73">
         <v>169</v>
       </c>
-      <c r="B47" s="96">
-        <v>3</v>
-      </c>
-      <c r="C47" s="92">
-        <v>4</v>
-      </c>
-      <c r="D47" s="92">
+      <c r="B47" s="74">
+        <v>3</v>
+      </c>
+      <c r="C47" s="70">
+        <v>4</v>
+      </c>
+      <c r="D47" s="70">
         <v>1</v>
       </c>
       <c r="E47" s="6">
@@ -7125,16 +6911,16 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="95">
+      <c r="A48" s="73">
         <v>169</v>
       </c>
-      <c r="B48" s="96">
-        <v>4</v>
-      </c>
-      <c r="C48" s="92">
-        <v>4</v>
-      </c>
-      <c r="D48" s="92">
+      <c r="B48" s="74">
+        <v>4</v>
+      </c>
+      <c r="C48" s="70">
+        <v>4</v>
+      </c>
+      <c r="D48" s="70">
         <v>1</v>
       </c>
       <c r="E48" s="6">
@@ -7142,16 +6928,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="95">
+      <c r="A49" s="73">
         <v>170</v>
       </c>
-      <c r="B49" s="96">
-        <v>2</v>
-      </c>
-      <c r="C49" s="92">
-        <v>4</v>
-      </c>
-      <c r="D49" s="92">
+      <c r="B49" s="74">
+        <v>2</v>
+      </c>
+      <c r="C49" s="70">
+        <v>4</v>
+      </c>
+      <c r="D49" s="70">
         <v>2</v>
       </c>
       <c r="E49" s="6">
@@ -7159,16 +6945,16 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="95">
+      <c r="A50" s="73">
         <v>170</v>
       </c>
-      <c r="B50" s="96">
-        <v>3</v>
-      </c>
-      <c r="C50" s="92">
-        <v>4</v>
-      </c>
-      <c r="D50" s="92">
+      <c r="B50" s="74">
+        <v>3</v>
+      </c>
+      <c r="C50" s="70">
+        <v>4</v>
+      </c>
+      <c r="D50" s="70">
         <v>1</v>
       </c>
       <c r="E50" s="6">
@@ -7176,16 +6962,16 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="95">
+      <c r="A51" s="73">
         <v>170</v>
       </c>
-      <c r="B51" s="96">
-        <v>3</v>
-      </c>
-      <c r="C51" s="92">
-        <v>4</v>
-      </c>
-      <c r="D51" s="92">
+      <c r="B51" s="74">
+        <v>3</v>
+      </c>
+      <c r="C51" s="70">
+        <v>4</v>
+      </c>
+      <c r="D51" s="70">
         <v>2</v>
       </c>
       <c r="E51" s="6">
@@ -7193,16 +6979,16 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="95">
+      <c r="A52" s="73">
         <v>170</v>
       </c>
-      <c r="B52" s="96">
-        <v>4</v>
-      </c>
-      <c r="C52" s="92">
-        <v>4</v>
-      </c>
-      <c r="D52" s="92">
+      <c r="B52" s="74">
+        <v>4</v>
+      </c>
+      <c r="C52" s="70">
+        <v>4</v>
+      </c>
+      <c r="D52" s="70">
         <v>1</v>
       </c>
       <c r="E52" s="6">
@@ -7210,16 +6996,16 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="95">
+      <c r="A53" s="73">
         <v>170</v>
       </c>
-      <c r="B53" s="96">
-        <v>4</v>
-      </c>
-      <c r="C53" s="92">
-        <v>4</v>
-      </c>
-      <c r="D53" s="92">
+      <c r="B53" s="74">
+        <v>4</v>
+      </c>
+      <c r="C53" s="70">
+        <v>4</v>
+      </c>
+      <c r="D53" s="70">
         <v>2</v>
       </c>
       <c r="E53" s="6">
@@ -7227,16 +7013,16 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="95">
+      <c r="A54" s="73">
         <v>178</v>
       </c>
-      <c r="B54" s="96">
-        <v>3</v>
-      </c>
-      <c r="C54" s="92">
-        <v>4</v>
-      </c>
-      <c r="D54" s="92">
+      <c r="B54" s="74">
+        <v>3</v>
+      </c>
+      <c r="C54" s="70">
+        <v>4</v>
+      </c>
+      <c r="D54" s="70">
         <v>1</v>
       </c>
       <c r="E54" s="6">
@@ -7244,16 +7030,16 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="95">
+      <c r="A55" s="73">
         <v>178</v>
       </c>
-      <c r="B55" s="96">
-        <v>3</v>
-      </c>
-      <c r="C55" s="92">
-        <v>4</v>
-      </c>
-      <c r="D55" s="92">
+      <c r="B55" s="74">
+        <v>3</v>
+      </c>
+      <c r="C55" s="70">
+        <v>4</v>
+      </c>
+      <c r="D55" s="70">
         <v>2</v>
       </c>
       <c r="E55" s="6">
@@ -7261,16 +7047,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="95">
+      <c r="A56" s="73">
         <v>178</v>
       </c>
-      <c r="B56" s="96">
-        <v>3</v>
-      </c>
-      <c r="C56" s="92">
-        <v>4</v>
-      </c>
-      <c r="D56" s="92">
+      <c r="B56" s="74">
+        <v>3</v>
+      </c>
+      <c r="C56" s="70">
+        <v>4</v>
+      </c>
+      <c r="D56" s="70">
         <v>3</v>
       </c>
       <c r="E56" s="6">
@@ -7278,16 +7064,16 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="95">
+      <c r="A57" s="73">
         <v>178</v>
       </c>
-      <c r="B57" s="96">
-        <v>4</v>
-      </c>
-      <c r="C57" s="92">
-        <v>4</v>
-      </c>
-      <c r="D57" s="92">
+      <c r="B57" s="74">
+        <v>4</v>
+      </c>
+      <c r="C57" s="70">
+        <v>4</v>
+      </c>
+      <c r="D57" s="70">
         <v>2</v>
       </c>
       <c r="E57" s="6">
@@ -7295,16 +7081,16 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="95">
+      <c r="A58" s="73">
         <v>178</v>
       </c>
-      <c r="B58" s="96">
-        <v>4</v>
-      </c>
-      <c r="C58" s="92">
-        <v>4</v>
-      </c>
-      <c r="D58" s="92">
+      <c r="B58" s="74">
+        <v>4</v>
+      </c>
+      <c r="C58" s="70">
+        <v>4</v>
+      </c>
+      <c r="D58" s="70">
         <v>3</v>
       </c>
       <c r="E58" s="6">
@@ -7312,16 +7098,16 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="95">
+      <c r="A59" s="73">
         <v>179</v>
       </c>
-      <c r="B59" s="96">
-        <v>3</v>
-      </c>
-      <c r="C59" s="92">
-        <v>4</v>
-      </c>
-      <c r="D59" s="92">
+      <c r="B59" s="74">
+        <v>3</v>
+      </c>
+      <c r="C59" s="70">
+        <v>4</v>
+      </c>
+      <c r="D59" s="70">
         <v>1</v>
       </c>
       <c r="E59" s="6">
@@ -7329,16 +7115,16 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="95">
+      <c r="A60" s="73">
         <v>179</v>
       </c>
-      <c r="B60" s="96">
-        <v>3</v>
-      </c>
-      <c r="C60" s="92">
-        <v>4</v>
-      </c>
-      <c r="D60" s="92">
+      <c r="B60" s="74">
+        <v>3</v>
+      </c>
+      <c r="C60" s="70">
+        <v>4</v>
+      </c>
+      <c r="D60" s="70">
         <v>2</v>
       </c>
       <c r="E60" s="6">
@@ -7346,16 +7132,16 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="95">
+      <c r="A61" s="73">
         <v>180</v>
       </c>
-      <c r="B61" s="96">
-        <v>3</v>
-      </c>
-      <c r="C61" s="92">
-        <v>4</v>
-      </c>
-      <c r="D61" s="92">
+      <c r="B61" s="74">
+        <v>3</v>
+      </c>
+      <c r="C61" s="70">
+        <v>4</v>
+      </c>
+      <c r="D61" s="70">
         <v>2</v>
       </c>
       <c r="E61" s="6">
@@ -7363,16 +7149,16 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="95">
+      <c r="A62" s="73">
         <v>187</v>
       </c>
-      <c r="B62" s="96">
-        <v>3</v>
-      </c>
-      <c r="C62" s="92">
-        <v>4</v>
-      </c>
-      <c r="D62" s="92">
+      <c r="B62" s="74">
+        <v>3</v>
+      </c>
+      <c r="C62" s="70">
+        <v>4</v>
+      </c>
+      <c r="D62" s="70">
         <v>3</v>
       </c>
       <c r="E62" s="6">
@@ -7380,16 +7166,16 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="95">
+      <c r="A63" s="73">
         <v>188</v>
       </c>
-      <c r="B63" s="96">
-        <v>3</v>
-      </c>
-      <c r="C63" s="92">
-        <v>4</v>
-      </c>
-      <c r="D63" s="92">
+      <c r="B63" s="74">
+        <v>3</v>
+      </c>
+      <c r="C63" s="70">
+        <v>4</v>
+      </c>
+      <c r="D63" s="70">
         <v>3</v>
       </c>
       <c r="E63" s="6">
@@ -7397,16 +7183,16 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="95">
+      <c r="A64" s="73">
         <v>210</v>
       </c>
-      <c r="B64" s="96">
-        <v>4</v>
-      </c>
-      <c r="C64" s="92">
-        <v>4</v>
-      </c>
-      <c r="D64" s="92">
+      <c r="B64" s="74">
+        <v>4</v>
+      </c>
+      <c r="C64" s="70">
+        <v>4</v>
+      </c>
+      <c r="D64" s="70">
         <v>1</v>
       </c>
       <c r="E64" s="6">
@@ -7414,16 +7200,16 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="95">
+      <c r="A65" s="73">
         <v>210</v>
       </c>
-      <c r="B65" s="96">
-        <v>4</v>
-      </c>
-      <c r="C65" s="92">
-        <v>4</v>
-      </c>
-      <c r="D65" s="92">
+      <c r="B65" s="74">
+        <v>4</v>
+      </c>
+      <c r="C65" s="70">
+        <v>4</v>
+      </c>
+      <c r="D65" s="70">
         <v>3</v>
       </c>
       <c r="E65" s="6">
@@ -7431,16 +7217,16 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="95">
+      <c r="A66" s="73">
         <v>210</v>
       </c>
-      <c r="B66" s="96">
-        <v>4</v>
-      </c>
-      <c r="C66" s="92">
-        <v>4</v>
-      </c>
-      <c r="D66" s="92">
+      <c r="B66" s="74">
+        <v>4</v>
+      </c>
+      <c r="C66" s="70">
+        <v>4</v>
+      </c>
+      <c r="D66" s="70">
         <v>4</v>
       </c>
       <c r="E66" s="6">
@@ -7448,16 +7234,16 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="95">
+      <c r="A67" s="73">
         <v>211</v>
       </c>
-      <c r="B67" s="96">
-        <v>4</v>
-      </c>
-      <c r="C67" s="92">
-        <v>4</v>
-      </c>
-      <c r="D67" s="92">
+      <c r="B67" s="74">
+        <v>4</v>
+      </c>
+      <c r="C67" s="70">
+        <v>4</v>
+      </c>
+      <c r="D67" s="70">
         <v>1</v>
       </c>
       <c r="E67" s="6">
@@ -7465,16 +7251,16 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="95">
+      <c r="A68" s="73">
         <v>211</v>
       </c>
-      <c r="B68" s="96">
-        <v>4</v>
-      </c>
-      <c r="C68" s="92">
-        <v>4</v>
-      </c>
-      <c r="D68" s="92">
+      <c r="B68" s="74">
+        <v>4</v>
+      </c>
+      <c r="C68" s="70">
+        <v>4</v>
+      </c>
+      <c r="D68" s="70">
         <v>2</v>
       </c>
       <c r="E68" s="6">
@@ -7482,16 +7268,16 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="95">
+      <c r="A69" s="73">
         <v>212</v>
       </c>
-      <c r="B69" s="96">
-        <v>4</v>
-      </c>
-      <c r="C69" s="92">
-        <v>4</v>
-      </c>
-      <c r="D69" s="92">
+      <c r="B69" s="74">
+        <v>4</v>
+      </c>
+      <c r="C69" s="70">
+        <v>4</v>
+      </c>
+      <c r="D69" s="70">
         <v>2</v>
       </c>
       <c r="E69" s="6">
@@ -7499,16 +7285,16 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="95">
+      <c r="A70" s="73">
         <v>219</v>
       </c>
-      <c r="B70" s="96">
-        <v>4</v>
-      </c>
-      <c r="C70" s="92">
-        <v>4</v>
-      </c>
-      <c r="D70" s="92">
+      <c r="B70" s="74">
+        <v>4</v>
+      </c>
+      <c r="C70" s="70">
+        <v>4</v>
+      </c>
+      <c r="D70" s="70">
         <v>3</v>
       </c>
       <c r="E70" s="6">
@@ -7516,16 +7302,16 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="95">
+      <c r="A71" s="73">
         <v>220</v>
       </c>
-      <c r="B71" s="96">
-        <v>3</v>
-      </c>
-      <c r="C71" s="92">
-        <v>4</v>
-      </c>
-      <c r="D71" s="92">
+      <c r="B71" s="74">
+        <v>3</v>
+      </c>
+      <c r="C71" s="70">
+        <v>4</v>
+      </c>
+      <c r="D71" s="70">
         <v>4</v>
       </c>
       <c r="E71" s="6">
@@ -7533,16 +7319,16 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="95">
+      <c r="A72" s="73">
         <v>220</v>
       </c>
-      <c r="B72" s="96">
-        <v>4</v>
-      </c>
-      <c r="C72" s="92">
-        <v>4</v>
-      </c>
-      <c r="D72" s="92">
+      <c r="B72" s="74">
+        <v>4</v>
+      </c>
+      <c r="C72" s="70">
+        <v>4</v>
+      </c>
+      <c r="D72" s="70">
         <v>3</v>
       </c>
       <c r="E72" s="6">
@@ -7550,16 +7336,16 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="95">
+      <c r="A73" s="73">
         <v>251</v>
       </c>
-      <c r="B73" s="96">
-        <v>4</v>
-      </c>
-      <c r="C73" s="92">
-        <v>4</v>
-      </c>
-      <c r="D73" s="92">
+      <c r="B73" s="74">
+        <v>4</v>
+      </c>
+      <c r="C73" s="70">
+        <v>4</v>
+      </c>
+      <c r="D73" s="70">
         <v>4</v>
       </c>
       <c r="E73" s="6">
@@ -7567,16 +7353,16 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="95">
+      <c r="A74" s="73">
         <v>252</v>
       </c>
-      <c r="B74" s="96">
-        <v>4</v>
-      </c>
-      <c r="C74" s="92">
-        <v>4</v>
-      </c>
-      <c r="D74" s="92">
+      <c r="B74" s="74">
+        <v>4</v>
+      </c>
+      <c r="C74" s="70">
+        <v>4</v>
+      </c>
+      <c r="D74" s="70">
         <v>4</v>
       </c>
       <c r="E74" s="6">
@@ -7584,16 +7370,16 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="95">
+      <c r="A75" s="73">
         <v>348</v>
       </c>
-      <c r="B75" s="96">
-        <v>3</v>
-      </c>
-      <c r="C75" s="92">
-        <v>4</v>
-      </c>
-      <c r="D75" s="92">
+      <c r="B75" s="74">
+        <v>3</v>
+      </c>
+      <c r="C75" s="70">
+        <v>4</v>
+      </c>
+      <c r="D75" s="70">
         <v>5</v>
       </c>
       <c r="E75" s="6">
@@ -7601,16 +7387,16 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="95">
+      <c r="A76" s="73">
         <v>379</v>
       </c>
-      <c r="B76" s="96">
-        <v>4</v>
-      </c>
-      <c r="C76" s="92">
-        <v>4</v>
-      </c>
-      <c r="D76" s="92">
+      <c r="B76" s="74">
+        <v>4</v>
+      </c>
+      <c r="C76" s="70">
+        <v>4</v>
+      </c>
+      <c r="D76" s="70">
         <v>5</v>
       </c>
       <c r="E76" s="6">
@@ -7618,16 +7404,16 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="95">
+      <c r="A77" s="73">
         <v>380</v>
       </c>
-      <c r="B77" s="96">
-        <v>4</v>
-      </c>
-      <c r="C77" s="92">
-        <v>4</v>
-      </c>
-      <c r="D77" s="92">
+      <c r="B77" s="74">
+        <v>4</v>
+      </c>
+      <c r="C77" s="70">
+        <v>4</v>
+      </c>
+      <c r="D77" s="70">
         <v>5</v>
       </c>
       <c r="E77" s="6">
